--- a/examples/sources/data/unsolved/to_schedule/2019-01-15.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-01-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -35,6 +35,27 @@
   </si>
   <si>
     <t>Fiscal</t>
+  </si>
+  <si>
+    <t>Querellante</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Riesgosa</t>
+  </si>
+  <si>
+    <t>Detenido</t>
+  </si>
+  <si>
+    <t>A la Tarde</t>
+  </si>
+  <si>
+    <t>Boulogne</t>
+  </si>
+  <si>
+    <t>Alma Fuerte</t>
   </si>
   <si>
     <t>Fecha de Pedido</t>
@@ -510,13 +531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,13 +571,34 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>100648</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>817</v>
@@ -568,30 +610,45 @@
         <v>665</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>646</v>
       </c>
-      <c r="H2" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P2">
         <v>456</v>
       </c>
-      <c r="J2" s="2">
-        <v>43480</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="Q2" s="2">
+        <v>43480</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>100649</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>819</v>
@@ -603,21 +660,36 @@
         <v>323</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>527</v>
       </c>
-      <c r="H3" s="2">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>100650</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>820</v>
@@ -629,21 +701,36 @@
         <v>323</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>384</v>
       </c>
-      <c r="H4" s="2">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>100651</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>821</v>
@@ -655,21 +742,36 @@
         <v>460</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>384</v>
       </c>
-      <c r="H5" s="2">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>100652</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>823</v>
@@ -681,21 +783,36 @@
         <v>396</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6">
         <v>732</v>
       </c>
-      <c r="H6" s="2">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>100653</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>823</v>
@@ -707,21 +824,36 @@
         <v>323</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>470</v>
       </c>
-      <c r="H7" s="2">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>100654</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>820</v>
@@ -733,30 +865,45 @@
         <v>668</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>1231</v>
       </c>
-      <c r="H8" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P8">
         <v>458</v>
       </c>
-      <c r="J8" s="2">
+      <c r="Q8" s="2">
         <v>43482</v>
       </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="R8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>100655</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>820</v>
@@ -768,30 +915,45 @@
         <v>668</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>1231</v>
       </c>
-      <c r="H9" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I9">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P9">
         <v>458</v>
       </c>
-      <c r="J9" s="2">
+      <c r="Q9" s="2">
         <v>43482</v>
       </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="R9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>100656</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>820</v>
@@ -803,30 +965,45 @@
         <v>668</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>1231</v>
       </c>
-      <c r="H10" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P10">
         <v>458</v>
       </c>
-      <c r="J10" s="2">
+      <c r="Q10" s="2">
         <v>43482</v>
       </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>100658</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>823</v>
@@ -838,30 +1015,45 @@
         <v>693</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>1179</v>
       </c>
-      <c r="H11" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I11">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P11">
         <v>504</v>
       </c>
-      <c r="J11" s="2">
+      <c r="Q11" s="2">
         <v>43511</v>
       </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="R11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>100659</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>823</v>
@@ -873,30 +1065,45 @@
         <v>690</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>1179</v>
       </c>
-      <c r="H12" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I12">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P12">
         <v>504</v>
       </c>
-      <c r="J12" s="2">
+      <c r="Q12" s="2">
         <v>43522</v>
       </c>
-      <c r="K12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>100660</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>820</v>
@@ -908,30 +1115,45 @@
         <v>663</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>647</v>
       </c>
-      <c r="H13" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I13">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P13">
         <v>456</v>
       </c>
-      <c r="J13" s="2">
+      <c r="Q13" s="2">
         <v>43482</v>
       </c>
-      <c r="K13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="R13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>100661</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>821</v>
@@ -943,30 +1165,45 @@
         <v>690</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>1179</v>
       </c>
-      <c r="H14" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I14">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P14">
         <v>504</v>
       </c>
-      <c r="J14" s="2">
+      <c r="Q14" s="2">
         <v>43522</v>
       </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="R14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>100662</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>820</v>
@@ -978,30 +1215,45 @@
         <v>802</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>824</v>
       </c>
-      <c r="H15" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P15">
         <v>498</v>
       </c>
-      <c r="J15" s="2">
+      <c r="Q15" s="2">
         <v>43482</v>
       </c>
-      <c r="K15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>100663</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>820</v>
@@ -1013,30 +1265,45 @@
         <v>802</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>824</v>
       </c>
-      <c r="H16" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I16">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P16">
         <v>498</v>
       </c>
-      <c r="J16" s="2">
+      <c r="Q16" s="2">
         <v>43483</v>
       </c>
-      <c r="K16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="R16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>100664</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>863</v>
@@ -1048,30 +1315,45 @@
         <v>323</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1308</v>
       </c>
-      <c r="H17" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P17">
         <v>456</v>
       </c>
-      <c r="J17" s="2">
+      <c r="Q17" s="2">
         <v>43483</v>
       </c>
-      <c r="K17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="R17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>100665</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>819</v>
@@ -1083,21 +1365,36 @@
         <v>323</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G18">
         <v>516</v>
       </c>
-      <c r="H18" s="2">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>100666</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>820</v>
@@ -1109,30 +1406,45 @@
         <v>323</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G19">
         <v>647</v>
       </c>
-      <c r="H19" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I19">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P19">
         <v>456</v>
       </c>
-      <c r="J19" s="2">
+      <c r="Q19" s="2">
         <v>43483</v>
       </c>
-      <c r="K19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="R19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>100667</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>819</v>
@@ -1144,21 +1456,36 @@
         <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G20">
         <v>384</v>
       </c>
-      <c r="H20" s="2">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>100668</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>819</v>
@@ -1170,21 +1497,36 @@
         <v>460</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G21">
         <v>516</v>
       </c>
-      <c r="H21" s="2">
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>100669</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>820</v>
@@ -1196,30 +1538,45 @@
         <v>323</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22">
         <v>1316</v>
       </c>
-      <c r="H22" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P22">
         <v>456</v>
       </c>
-      <c r="J22" s="2">
+      <c r="Q22" s="2">
         <v>43482</v>
       </c>
-      <c r="K22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="R22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>100670</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>820</v>
@@ -1231,30 +1588,45 @@
         <v>323</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23">
         <v>1316</v>
       </c>
-      <c r="H23" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I23">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P23">
         <v>456</v>
       </c>
-      <c r="J23" s="2">
+      <c r="Q23" s="2">
         <v>43482</v>
       </c>
-      <c r="K23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="R23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>100671</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>817</v>
@@ -1266,92 +1638,387 @@
         <v>323</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>1098</v>
       </c>
-      <c r="H24" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I24">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P24">
         <v>451</v>
       </c>
-      <c r="J24" s="2">
+      <c r="Q24" s="2">
         <v>43482</v>
       </c>
-      <c r="K24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="R24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
-        <v>100672</v>
+        <v>100671</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D25">
         <v>656</v>
       </c>
       <c r="E25">
-        <v>1144</v>
+        <v>323</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>1098</v>
       </c>
-      <c r="H25" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I25">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P25">
         <v>451</v>
       </c>
-      <c r="J25" s="2">
-        <v>43503</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="Q25" s="2">
+        <v>43482</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
-        <v>100673</v>
+        <v>100671</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D26">
         <v>656</v>
       </c>
       <c r="E26">
-        <v>571</v>
+        <v>323</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>1098</v>
       </c>
-      <c r="H26" s="2">
-        <v>43480</v>
-      </c>
-      <c r="I26">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P26">
         <v>451</v>
       </c>
-      <c r="J26" s="2">
+      <c r="Q26" s="2">
         <v>43482</v>
       </c>
-      <c r="K26" t="s">
-        <v>44</v>
+      <c r="R26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>100671</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>817</v>
+      </c>
+      <c r="D27">
+        <v>656</v>
+      </c>
+      <c r="E27">
+        <v>323</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <v>1098</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P27">
+        <v>451</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>43482</v>
+      </c>
+      <c r="R27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>100672</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>828</v>
+      </c>
+      <c r="D28">
+        <v>656</v>
+      </c>
+      <c r="E28">
+        <v>1144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28">
+        <v>1098</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P28">
+        <v>451</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>43503</v>
+      </c>
+      <c r="R28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>100673</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>828</v>
+      </c>
+      <c r="D29">
+        <v>656</v>
+      </c>
+      <c r="E29">
+        <v>571</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>1098</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P29">
+        <v>451</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>43482</v>
+      </c>
+      <c r="R29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>100673</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>828</v>
+      </c>
+      <c r="D30">
+        <v>656</v>
+      </c>
+      <c r="E30">
+        <v>571</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>1098</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P30">
+        <v>451</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>43482</v>
+      </c>
+      <c r="R30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>100673</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>828</v>
+      </c>
+      <c r="D31">
+        <v>656</v>
+      </c>
+      <c r="E31">
+        <v>1144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31">
+        <v>1098</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>43480</v>
+      </c>
+      <c r="P31">
+        <v>451</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>43482</v>
+      </c>
+      <c r="R31" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
